--- a/biology/Zoologie/Conus_purissimus/Conus_purissimus.xlsx
+++ b/biology/Zoologie/Conus_purissimus/Conus_purissimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus purissimus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 25 mm et 48 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de l'Indonésie.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus purissimus a été décrite pour la première fois en 2011 par le malacologiste britannique Robin Michael Filmer[1] dans « Visaya »[2],[3].
-Synonymes
-Conus (Splinoconus) purissimus Filmer, 2011 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus purissimus a été décrite pour la première fois en 2011 par le malacologiste britannique Robin Michael Filmer dans « Visaya »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_purissimus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_purissimus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Splinoconus) purissimus Filmer, 2011 · appellation alternative
 Conus lacteus Lamarck, 1810 · non accepté
 Graphiconus purissimus (Filmer, 2011) · non accepté</t>
         </is>
